--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45AD5E-3B60-4506-B2CD-E1C9FE4F97EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761E310-DBC8-4FC0-93B2-289AE7D2981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22940" yWindow="280" windowWidth="19790" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="제품등록(가이드)" sheetId="1" r:id="rId1"/>
@@ -96,29 +96,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀업로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_0904_01</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_product_0904_01</t>
+    <t>upload_product_0905_13</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -139,22 +117,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_0904_02</t>
+      <t>_0905_13</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>upload_product_0904_02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -174,7 +139,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_0904_03</t>
+      <t>_0905_14</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +154,42 @@
     </r>
   </si>
   <si>
-    <t>upload_product_0904_03</t>
+    <t>upload_product_0905_14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀업로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_0905_15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>upload_product_0905_15</t>
   </si>
 </sst>
 </file>
@@ -216,21 +216,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="25"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2079,7 +2083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2150,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -2196,7 +2200,7 @@
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2240,7 +2244,7 @@
       <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761E310-DBC8-4FC0-93B2-289AE7D2981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8898C55A-C97B-4768-9252-5216B14BDE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,29 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>upload_product_0905_13</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀업로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_0909_01</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_product_0909_01</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -117,9 +139,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_0905_13</t>
+      <t>_0909_02</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>upload_product_0909_02</t>
   </si>
   <si>
     <r>
@@ -139,7 +174,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_0905_14</t>
+      <t>_0909_03</t>
     </r>
     <r>
       <rPr>
@@ -154,42 +189,7 @@
     </r>
   </si>
   <si>
-    <t>upload_product_0905_14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀업로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_0905_15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>upload_product_0905_15</t>
+    <t>upload_product_0909_03</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23740" yWindow="2630" windowWidth="19790" windowHeight="13840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="제품등록(가이드)" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,19 +17,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,13 +56,6 @@
       <family val="3"/>
       <sz val="8"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -119,23 +104,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -498,7 +480,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="10">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>가이드 내용이 들어갈 예정입니다!</t>
         </is>
@@ -1521,7 +1503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F4"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1629,12 +1611,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0910_04</t>
+          <t>엑셀업로드_0911_1003</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0910_04</t>
+          <t>upload_product_0911_1003</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1695,12 +1677,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0910_05</t>
+          <t>엑셀업로드_0911_1004</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0910_05</t>
+          <t>upload_product_0911_1004</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1761,12 +1743,12 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0910_06</t>
+          <t>엑셀업로드_0911_1005</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0910_06</t>
+          <t>upload_product_0911_1005</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0911_1003</t>
+          <t>엑셀업로드_0912_10</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0911_1003</t>
+          <t>upload_product_0912_10</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0911_1004</t>
+          <t>엑셀업로드_0912_11</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0911_1004</t>
+          <t>upload_product_0912_11</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0911_1005</t>
+          <t>엑셀업로드_0912_12</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0911_1005</t>
+          <t>upload_product_0912_12</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_10</t>
+          <t>엑셀업로드_0912_22</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_10</t>
+          <t>upload_product_0912_22</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_11</t>
+          <t>엑셀업로드_0912_23</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_11</t>
+          <t>upload_product_0912_23</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_12</t>
+          <t>엑셀업로드_0912_24</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_12</t>
+          <t>upload_product_0912_24</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_22</t>
+          <t>엑셀업로드_0915_04</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_22</t>
+          <t>upload_product_0915_04</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_23</t>
+          <t>엑셀업로드_0915_05</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_23</t>
+          <t>upload_product_0915_05</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0912_24</t>
+          <t>엑셀업로드_0915_06</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0912_24</t>
+          <t>upload_product_0915_06</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">

--- a/data/success.xlsx
+++ b/data/success.xlsx
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0915_04</t>
+          <t>엑셀업로드_0930_135751_43</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0915_04</t>
+          <t>upload_product_0930_135751_43</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0915_05</t>
+          <t>엑셀업로드_0930_135751_83</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0915_05</t>
+          <t>upload_product_0930_135751_83</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>엑셀업로드_0915_06</t>
+          <t>엑셀업로드_0930_135751_11</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>upload_product_0915_06</t>
+          <t>upload_product_0930_135751_11</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
